--- a/digital-objects/omap/14-kidney-cycif/v1.1/raw/omap-14-kidney-cycif.xlsx
+++ b/digital-objects/omap/14-kidney-cycif/v1.1/raw/omap-14-kidney-cycif.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/14-kidney-cycif/v1.0/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/14-kidney-cycif/v1.1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35ACD3-02A7-6048-94A1-7D48D3E2F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CC41CA-B723-834B-9A68-9BD4725629A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OMAP-14-Kidney-CyCIF" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Version Number:</t>
-  </si>
-  <si>
-    <t>v1.0</t>
   </si>
   <si>
     <t>omap_id</t>
@@ -669,6 +666,9 @@
   <si>
     <t>HGNC:10912</t>
   </si>
+  <si>
+    <t>v1.1</t>
+  </si>
 </sst>
 </file>
 
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:AQ1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1448,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>45458</v>
+        <v>45823</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1497,7 +1497,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1543,82 +1543,82 @@
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="T11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="U11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="V11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="W11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="X11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="Y11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Z11" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
@@ -1640,76 +1640,76 @@
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="I12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13">
         <v>250</v>
       </c>
       <c r="O12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="Q12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="R12" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S12" s="13">
         <v>3</v>
       </c>
       <c r="T12" s="13"/>
       <c r="U12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
+      <c r="Z12" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
@@ -1731,78 +1731,78 @@
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13">
         <v>500</v>
       </c>
       <c r="O13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="Q13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S13" s="13">
         <v>2</v>
       </c>
       <c r="T13" s="13"/>
       <c r="U13" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z13" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -1824,78 +1824,78 @@
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="I14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="K14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="L14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13">
         <v>1000</v>
       </c>
       <c r="O14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="Q14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S14" s="13">
         <v>4</v>
       </c>
       <c r="T14" s="13"/>
       <c r="U14" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -1917,78 +1917,78 @@
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="I15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="L15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13">
         <v>500</v>
       </c>
       <c r="O15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="Q15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S15" s="13">
         <v>3</v>
       </c>
       <c r="T15" s="13"/>
       <c r="U15" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z15" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z15" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
@@ -2010,78 +2010,78 @@
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="G16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="13">
         <v>1042</v>
       </c>
       <c r="I16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="K16" s="13">
         <v>2097061</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13">
         <v>500</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S16" s="13">
         <v>4</v>
       </c>
       <c r="T16" s="13"/>
       <c r="U16" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V16" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z16" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -2103,76 +2103,76 @@
     </row>
     <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="J17" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13">
         <v>500</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S17" s="13">
         <v>4</v>
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V17" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z17" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -2194,74 +2194,74 @@
     </row>
     <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="E18" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="K18" s="13">
         <v>3113882</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13">
         <v>400</v>
       </c>
       <c r="O18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="13" t="s">
-        <v>114</v>
-      </c>
       <c r="Q18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S18" s="13">
         <v>1</v>
       </c>
       <c r="T18" s="13"/>
       <c r="U18" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
@@ -2283,70 +2283,70 @@
     </row>
     <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13">
         <v>500</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S19" s="13">
         <v>1</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z19" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
@@ -2368,78 +2368,78 @@
     </row>
     <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="I20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="K20" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="L20" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13">
         <v>250</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S20" s="13">
         <v>1</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V20" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z20" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -2461,70 +2461,70 @@
     </row>
     <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13">
         <v>500</v>
       </c>
       <c r="O21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="P21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="Q21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S21" s="13">
         <v>1</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V21" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z21" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -2546,76 +2546,76 @@
     </row>
     <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="I22" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="J22" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M22" s="13"/>
       <c r="N22" s="13">
         <v>200</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S22" s="13">
         <v>3</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V22" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z22" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z22" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -2637,76 +2637,76 @@
     </row>
     <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="F23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="K23" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="L23" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13">
         <v>2000</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S23" s="13">
         <v>1</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V23" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z23" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -2728,70 +2728,70 @@
     </row>
     <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13">
         <v>500</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R24" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S24" s="13">
         <v>1</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V24" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z24" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -2813,80 +2813,80 @@
     </row>
     <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="13" t="s">
+      <c r="I25" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="J25" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="K25" s="13">
         <v>1573326</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13">
         <v>500</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S25" s="13">
         <v>1</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V25" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z25" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z25" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -2908,68 +2908,68 @@
     </row>
     <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13">
         <v>500</v>
       </c>
       <c r="O26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P26" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="Q26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R26" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S26" s="13">
         <v>1</v>
       </c>
       <c r="T26" s="13"/>
       <c r="U26" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V26" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z26" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z26" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -2991,76 +2991,76 @@
     </row>
     <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="E27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="G27" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="K27" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>168</v>
-      </c>
       <c r="L27" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="13">
         <v>500</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S27" s="13">
         <v>1</v>
       </c>
       <c r="T27" s="13"/>
       <c r="U27" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z27" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -3082,70 +3082,70 @@
     </row>
     <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="13">
         <v>500</v>
       </c>
       <c r="O28" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="P28" s="13" t="s">
-        <v>173</v>
-      </c>
       <c r="Q28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S28" s="13">
         <v>1</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z28" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
@@ -3167,78 +3167,78 @@
     </row>
     <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="E29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="I29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="13" t="s">
+      <c r="K29" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>180</v>
-      </c>
       <c r="L29" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="13">
         <v>500</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R29" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S29" s="13">
         <v>2</v>
       </c>
       <c r="T29" s="13"/>
       <c r="U29" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V29" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z29" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z29" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
@@ -3260,78 +3260,78 @@
     </row>
     <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="E30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="I30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="13" t="s">
+      <c r="K30" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="L30" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="13">
         <v>500</v>
       </c>
       <c r="O30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="P30" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="Q30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S30" s="13">
         <v>2</v>
       </c>
       <c r="T30" s="13"/>
       <c r="U30" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V30" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z30" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z30" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
@@ -3353,76 +3353,76 @@
     </row>
     <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="I31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13">
         <v>800</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S31" s="13">
         <v>2</v>
       </c>
       <c r="T31" s="13"/>
       <c r="U31" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V31" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X31" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z31" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z31" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
@@ -3444,76 +3444,76 @@
     </row>
     <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>199</v>
-      </c>
       <c r="E32" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="G32" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="L32" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13">
         <v>500</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R32" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S32" s="13">
         <v>4</v>
       </c>
       <c r="T32" s="13"/>
       <c r="U32" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V32" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z32" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z32" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
@@ -3535,78 +3535,78 @@
     </row>
     <row r="33" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="J33" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="K33" s="13">
         <v>2</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13">
         <v>500</v>
       </c>
       <c r="O33" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="P33" s="13" t="s">
-        <v>213</v>
-      </c>
       <c r="Q33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R33" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="S33" s="13">
         <v>2</v>
       </c>
       <c r="T33" s="13"/>
       <c r="U33" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V33" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z33" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="Z33" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
